--- a/品質管理/質問詳細・回答一覧.xlsx
+++ b/品質管理/質問詳細・回答一覧.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\webアプリ開発\品質管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\品質管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFAC75D-CBC1-48FD-8DD7-BB9EC087D5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F21193C-8DA7-4F79-BB69-CA482113FDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="285" windowWidth="10680" windowHeight="10485" activeTab="1" xr2:uid="{7B67F256-F825-4A2D-838D-69874EE63EB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7B67F256-F825-4A2D-838D-69874EE63EB9}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -258,6 +258,99 @@
     </rPh>
     <rPh sb="37" eb="39">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答内容記入欄</t>
+    <rPh sb="0" eb="7">
+      <t>カイトウナイヨウキニュウラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力なし</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力あり</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿する</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>window.confirm「回答を送信してもよろしいですか？」</t>
+    <rPh sb="15" eb="17">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>okの場合→「回答を送信しました。」</t>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予想される結果</t>
+    <rPh sb="0" eb="2">
+      <t>ヨソウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>window.alert
+「項目を1つ以上入力してください。」</t>
+    <rPh sb="14" eb="16">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンセルの場合→「回答を送信できませんでした」</t>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -306,7 +399,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -329,13 +422,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -350,6 +469,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,9 +804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9651654-284B-4E5D-B601-113F5494CF5D}">
   <dimension ref="B3:D21"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -693,7 +828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -854,27 +989,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74AEE49E-61EF-44B7-A5C5-B9EE76790F49}">
-  <dimension ref="B3:D14"/>
+  <dimension ref="B3:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="4" max="4" width="26.125" customWidth="1"/>
+    <col min="5" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="24" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" ht="24" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -885,7 +1022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B6" s="2">
         <v>1</v>
       </c>
@@ -894,7 +1031,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -903,57 +1040,103 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B8" s="2">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="2:7" ht="24" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" ht="75" x14ac:dyDescent="0.4">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="2:7" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B14" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B9" s="2">
+      <c r="C14" s="3"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="2">
         <v>4</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B10" s="2">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B11" s="2">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B12" s="2">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="2">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B14" s="2">
-        <v>9</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/品質管理/質問詳細・回答一覧.xlsx
+++ b/品質管理/質問詳細・回答一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\品質管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F21193C-8DA7-4F79-BB69-CA482113FDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD071141-4259-4C5B-A041-5CC0936E2079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7B67F256-F825-4A2D-838D-69874EE63EB9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7B67F256-F825-4A2D-838D-69874EE63EB9}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -262,95 +262,110 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>回答内容記入欄</t>
-    <rPh sb="0" eb="7">
-      <t>カイトウナイヨウキニュウラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力なし</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力あり</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>投稿ボタン</t>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン状態でなければログインページに遷移する</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿ボタンが押されたら確認ダイアログボックスが表示される</t>
     <rPh sb="0" eb="2">
       <t>トウコウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>投稿する</t>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認ダイアログボックスでOKを押すと、質問詳細ページが表示され、新しい解答内容が表示される。</t>
     <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認ダイアログボックスでキャンセルを押すと、投稿ボタンを押す前の状態に戻る。</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
       <t>トウコウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>window.confirm「回答を送信してもよろしいですか？」</t>
-    <rPh sb="15" eb="17">
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答内容が未入力の場合は「このフィールドを入力してください」とメッセージが表示される。</t>
+    <rPh sb="0" eb="2">
       <t>カイトウ</t>
     </rPh>
-    <rPh sb="18" eb="20">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>okの場合→「回答を送信しました。」</t>
-    <rPh sb="3" eb="5">
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
       <t>バアイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>予想される結果</t>
-    <rPh sb="0" eb="2">
-      <t>ヨソウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>window.alert
-「項目を1つ以上入力してください。」</t>
-    <rPh sb="14" eb="16">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>イジョウ</t>
     </rPh>
     <rPh sb="21" eb="23">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キャンセルの場合→「回答を送信できませんでした」</t>
-    <rPh sb="6" eb="8">
-      <t>バアイ</t>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -399,7 +414,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -422,39 +437,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -469,24 +458,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -806,18 +777,18 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="24" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:4" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,106 +799,128 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:4" ht="36" x14ac:dyDescent="0.45">
       <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:4" ht="36" x14ac:dyDescent="0.45">
       <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" s="2">
         <v>5</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" s="2">
         <v>7</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D11" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" s="2">
         <v>8</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" s="2">
         <v>9</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
         <v>10</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B15" s="2">
         <v>11</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:4" ht="36" x14ac:dyDescent="0.45">
       <c r="B16" s="2">
         <v>12</v>
       </c>
@@ -936,47 +929,57 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" s="2">
         <v>13</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D17" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" s="2">
         <v>14</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D18" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" ht="36" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
         <v>15</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D19" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" s="2">
         <v>16</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D20" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" s="2">
         <v>17</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D21" s="4" t="s">
         <v>18</v>
       </c>
@@ -984,34 +987,33 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74AEE49E-61EF-44B7-A5C5-B9EE76790F49}">
-  <dimension ref="B3:G15"/>
+  <dimension ref="B3:D14"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="26.125" customWidth="1"/>
-    <col min="5" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="24" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1022,16 +1024,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:4" ht="36" x14ac:dyDescent="0.45">
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:4" ht="54" x14ac:dyDescent="0.45">
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -1040,103 +1044,73 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="2:7" ht="24" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1" t="s">
+    <row r="8" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="72" x14ac:dyDescent="0.45">
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:7" ht="75" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="2:4" ht="54" x14ac:dyDescent="0.45">
+      <c r="B11" s="2">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="54" x14ac:dyDescent="0.45">
       <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="2:7" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="2">
-        <v>4</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="D14" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/品質管理/質問詳細・回答一覧.xlsx
+++ b/品質管理/質問詳細・回答一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\品質管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD071141-4259-4C5B-A041-5CC0936E2079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC4698E-008C-4925-8946-B8252DCDA4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7B67F256-F825-4A2D-838D-69874EE63EB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7B67F256-F825-4A2D-838D-69874EE63EB9}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計" sheetId="2" r:id="rId1"/>
@@ -443,7 +443,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -454,9 +454,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -775,20 +781,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9651654-284B-4E5D-B601-113F5494CF5D}">
   <dimension ref="B3:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="22.2" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:4" ht="24" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -799,188 +805,188 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" s="2">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="2">
         <v>7</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="2">
         <v>8</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="2">
         <v>9</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="2">
         <v>10</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="2">
         <v>11</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B16" s="2">
         <v>12</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="2">
         <v>13</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="2">
         <v>14</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B19" s="2">
         <v>15</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="2">
         <v>16</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="C20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="2">
         <v>17</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -995,25 +1001,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74AEE49E-61EF-44B7-A5C5-B9EE76790F49}">
   <dimension ref="B3:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="22.2" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:4" ht="24" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1024,90 +1030,86 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="54" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="72" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" ht="75" x14ac:dyDescent="0.4">
       <c r="B10" s="2">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="54" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="54" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B12" s="2">
         <v>7</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B13" s="2">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B14" s="2">
-        <v>9</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
